--- a/python_excel_ohlc_demo.xlsx
+++ b/python_excel_ohlc_demo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7FAFD3D4-7365-471D-90E0-B00C25A3DE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF773A7C-F105-42FC-A775-E2FD24D63212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="hourly_stock_prices" sheetId="1" r:id="rId1"/>
-    <sheet name="ohlc" sheetId="3" r:id="rId2"/>
+    <sheet name="ohlc" sheetId="3" r:id="rId1"/>
+    <sheet name="hourly_stock_prices" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -136,17 +149,19 @@
 stocks_ohlc = stocks_df['stock_price'].resample('D').ohlc()</code>
     </pythonScript>
     <pythonScript>
-      <code>stocks_ohlc = stocks_ohlc.reset_index()
-plt.rcParams.update({'font.size': 20})
-fig, ax = plt.subplots(figsize=(18, 10))
+      <code>import matplotlib.pyplot as plt
+import pandas as pd
+stocks_ohlc = stocks_ohlc.reset_index()
+fig, ax = plt.subplots()
 offset = 0.1  
 for idx, row in stocks_ohlc.iterrows():
     color = 'green' if row['close'] &gt;= row['open'] else 'red'
     plt.plot([row['date'], row['date']], [row['low'], row['high']], color=color, linewidth=2)
     plt.plot([row['date'] - pd.Timedelta(days=offset), row['date']], [row['open'], row['open']], color=color, linewidth=2)
     plt.plot([row['date'], row['date'] + pd.Timedelta(days=offset)], [row['close'], row['close']], color=color, linewidth=2)
-ax.xaxis_date()
-plt.title('Stock Price OHLC Chart')</code>
+plt.xticks(stocks_ohlc['date'].tolist())
+plt.title('Stock Price OHLC Chart')
+plt.show()</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -164,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="20"/>
@@ -712,70 +727,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>908277</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>279457</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>601990</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>337614</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB29085-7D4E-A573-47BD-996C0EC41130}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="ohlc!A9"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11025188" y="6402671"/>
-          <a:ext cx="5204606" cy="3800122"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>787978</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>207818</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>608300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>98203</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1039090</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86589</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -803,8 +764,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3004705" y="2909454"/>
-          <a:ext cx="8687231" cy="4955954"/>
+          <a:off x="0" y="2770908"/>
+          <a:ext cx="7689272" cy="5758296"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -937,11 +898,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="stocks" displayName="stocks" ref="A1:B36" totalsRowShown="0">
-  <autoFilter ref="A1:B36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="stocks" displayName="stocks" ref="A1:B36" totalsRowShown="0">
+  <autoFilter ref="A1:B36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="date_time" dataDxfId="0"/>
-    <tableColumn id="2" name="stock_price"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="date_time" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="stock_price"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1282,6 +1243,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1292,11 +1256,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:E7">_xlfn._xlws.PY(0,0,stocks[#All])</f>
+        <v/>
+      </c>
+      <c r="B1" t="str">
+        <v>open</v>
+      </c>
+      <c r="C1" t="str">
+        <v>high</v>
+      </c>
+      <c r="D1" t="str">
+        <v>low</v>
+      </c>
+      <c r="E1" t="str">
+        <v>close</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A2" t="str">
+        <v>date</v>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A3" vm="1">
+        <v>45355</v>
+      </c>
+      <c r="B3">
+        <v>101.09</v>
+      </c>
+      <c r="C3">
+        <v>107.98</v>
+      </c>
+      <c r="D3">
+        <v>100.92</v>
+      </c>
+      <c r="E3">
+        <v>107.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A4" vm="2">
+        <v>45356</v>
+      </c>
+      <c r="B4">
+        <v>109.62</v>
+      </c>
+      <c r="C4">
+        <v>109.96</v>
+      </c>
+      <c r="D4">
+        <v>105.16</v>
+      </c>
+      <c r="E4">
+        <v>105.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A5" vm="3">
+        <v>45357</v>
+      </c>
+      <c r="B5">
+        <v>101.81</v>
+      </c>
+      <c r="C5">
+        <v>101.81</v>
+      </c>
+      <c r="D5">
+        <v>95.15</v>
+      </c>
+      <c r="E5">
+        <v>98.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A6" vm="4">
+        <v>45358</v>
+      </c>
+      <c r="B6">
+        <v>97.83</v>
+      </c>
+      <c r="C6">
+        <v>98.06</v>
+      </c>
+      <c r="D6">
+        <v>92.44</v>
+      </c>
+      <c r="E6">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A7" vm="5">
+        <v>45359</v>
+      </c>
+      <c r="B7">
+        <v>92.19</v>
+      </c>
+      <c r="C7">
+        <v>94.49</v>
+      </c>
+      <c r="D7">
+        <v>90.61</v>
+      </c>
+      <c r="E7">
+        <v>94.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A9" t="e" cm="1" vm="6">
+        <f t="array" ref="A9">_xlfn._xlws.PY(1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D7" sqref="D7:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
@@ -1596,152 +1700,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A1" t="str" cm="1">
-        <f t="array" ref="A1:E7">_xlfn._xlws.PY(0,0,stocks[#All])</f>
-        <v/>
-      </c>
-      <c r="B1" t="str">
-        <v>open</v>
-      </c>
-      <c r="C1" t="str">
-        <v>high</v>
-      </c>
-      <c r="D1" t="str">
-        <v>low</v>
-      </c>
-      <c r="E1" t="str">
-        <v>close</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A2" t="str">
-        <v>date</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A3" vm="1">
-        <v>45355</v>
-      </c>
-      <c r="B3">
-        <v>101.09</v>
-      </c>
-      <c r="C3">
-        <v>107.98</v>
-      </c>
-      <c r="D3">
-        <v>100.92</v>
-      </c>
-      <c r="E3">
-        <v>107.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A4" vm="2">
-        <v>45356</v>
-      </c>
-      <c r="B4">
-        <v>109.62</v>
-      </c>
-      <c r="C4">
-        <v>109.96</v>
-      </c>
-      <c r="D4">
-        <v>105.16</v>
-      </c>
-      <c r="E4">
-        <v>105.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A5" vm="3">
-        <v>45357</v>
-      </c>
-      <c r="B5">
-        <v>101.81</v>
-      </c>
-      <c r="C5">
-        <v>101.81</v>
-      </c>
-      <c r="D5">
-        <v>95.15</v>
-      </c>
-      <c r="E5">
-        <v>98.18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A6" vm="4">
-        <v>45358</v>
-      </c>
-      <c r="B6">
-        <v>97.83</v>
-      </c>
-      <c r="C6">
-        <v>98.06</v>
-      </c>
-      <c r="D6">
-        <v>92.44</v>
-      </c>
-      <c r="E6">
-        <v>93.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A7" vm="5">
-        <v>45359</v>
-      </c>
-      <c r="B7">
-        <v>92.19</v>
-      </c>
-      <c r="C7">
-        <v>94.49</v>
-      </c>
-      <c r="D7">
-        <v>90.61</v>
-      </c>
-      <c r="E7">
-        <v>94.22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A9" t="e" cm="1" vm="6">
-        <f t="array" ref="A9">_xlfn._xlws.PY(1,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
